--- a/data/xlsx/Chapter.xlsx
+++ b/data/xlsx/Chapter.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI82"/>
+  <dimension ref="A1:AI88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
@@ -11592,6 +11592,860 @@
       </c>
       <c r="AI82" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>CID_G001</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>MCID_*</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Fld_*</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>*_Encount</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>ChapterTitleLithos</t>
+        </is>
+      </c>
+      <c r="J83" t="n">
+        <v>1</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>MapTerrain_*</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>G001</t>
+        </is>
+      </c>
+      <c r="O83" t="n">
+        <v>1</v>
+      </c>
+      <c r="P83" t="inlineStr"/>
+      <c r="Q83" t="n">
+        <v>1</v>
+      </c>
+      <c r="R83" t="inlineStr">
+        <is>
+          <t>EJID_G_ランダム_DLC;</t>
+        </is>
+      </c>
+      <c r="S83" t="inlineStr"/>
+      <c r="T83" t="n">
+        <v>1</v>
+      </c>
+      <c r="U83" t="n">
+        <v>0</v>
+      </c>
+      <c r="V83" t="n">
+        <v>59</v>
+      </c>
+      <c r="W83" t="inlineStr">
+        <is>
+          <t>Outdoor</t>
+        </is>
+      </c>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>BGM_Field_S14</t>
+        </is>
+      </c>
+      <c r="Y83" t="inlineStr">
+        <is>
+          <t>BGM_Field_S_E01</t>
+        </is>
+      </c>
+      <c r="Z83" t="inlineStr">
+        <is>
+          <t>BGM_Field_S14</t>
+        </is>
+      </c>
+      <c r="AA83" t="inlineStr">
+        <is>
+          <t>BGM_Field_S14</t>
+        </is>
+      </c>
+      <c r="AB83" t="inlineStr">
+        <is>
+          <t>BGM_Field_S_E01</t>
+        </is>
+      </c>
+      <c r="AC83" t="inlineStr">
+        <is>
+          <t>BGM_Sys_Prepare1</t>
+        </is>
+      </c>
+      <c r="AD83" t="inlineStr">
+        <is>
+          <t>BGM_Evt_Ring</t>
+        </is>
+      </c>
+      <c r="AE83" t="inlineStr"/>
+      <c r="AF83" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG83" t="inlineStr">
+        <is>
+          <t>NID_神竜の章</t>
+        </is>
+      </c>
+      <c r="AH83" t="n">
+        <v>39</v>
+      </c>
+      <c r="AI83" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>CID_G002</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>MCID_*</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Fld_*</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>*_Encount</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>ChapterTitleLithos</t>
+        </is>
+      </c>
+      <c r="J84" t="n">
+        <v>1</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>MapTerrain_*</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>G002</t>
+        </is>
+      </c>
+      <c r="O84" t="n">
+        <v>1</v>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>G001</t>
+        </is>
+      </c>
+      <c r="Q84" t="n">
+        <v>1</v>
+      </c>
+      <c r="R84" t="inlineStr">
+        <is>
+          <t>EJID_G_ランダム_DLC;</t>
+        </is>
+      </c>
+      <c r="S84" t="inlineStr"/>
+      <c r="T84" t="n">
+        <v>1</v>
+      </c>
+      <c r="U84" t="n">
+        <v>0</v>
+      </c>
+      <c r="V84" t="n">
+        <v>59</v>
+      </c>
+      <c r="W84" t="inlineStr">
+        <is>
+          <t>Cave</t>
+        </is>
+      </c>
+      <c r="X84" t="inlineStr">
+        <is>
+          <t>BGM_Field_S04</t>
+        </is>
+      </c>
+      <c r="Y84" t="inlineStr">
+        <is>
+          <t>BGM_Field_S_E01</t>
+        </is>
+      </c>
+      <c r="Z84" t="inlineStr">
+        <is>
+          <t>BGM_Field_S04</t>
+        </is>
+      </c>
+      <c r="AA84" t="inlineStr">
+        <is>
+          <t>BGM_Field_S04</t>
+        </is>
+      </c>
+      <c r="AB84" t="inlineStr">
+        <is>
+          <t>BGM_Field_S_E01</t>
+        </is>
+      </c>
+      <c r="AC84" t="inlineStr">
+        <is>
+          <t>BGM_Sys_Prepare1</t>
+        </is>
+      </c>
+      <c r="AD84" t="inlineStr">
+        <is>
+          <t>BGM_Evt_Ring</t>
+        </is>
+      </c>
+      <c r="AE84" t="inlineStr"/>
+      <c r="AF84" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG84" t="inlineStr">
+        <is>
+          <t>NID_神竜の章</t>
+        </is>
+      </c>
+      <c r="AH84" t="n">
+        <v>40</v>
+      </c>
+      <c r="AI84" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>CID_G003</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>MCID_*</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Fld_*</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>*_Encount</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>ChapterTitleLithos</t>
+        </is>
+      </c>
+      <c r="J85" t="n">
+        <v>1</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>MapTerrain_*</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>G003</t>
+        </is>
+      </c>
+      <c r="O85" t="n">
+        <v>1</v>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>G001</t>
+        </is>
+      </c>
+      <c r="Q85" t="n">
+        <v>1</v>
+      </c>
+      <c r="R85" t="inlineStr">
+        <is>
+          <t>EJID_G_ランダム_DLC;</t>
+        </is>
+      </c>
+      <c r="S85" t="inlineStr"/>
+      <c r="T85" t="n">
+        <v>1</v>
+      </c>
+      <c r="U85" t="n">
+        <v>0</v>
+      </c>
+      <c r="V85" t="n">
+        <v>59</v>
+      </c>
+      <c r="W85" t="inlineStr">
+        <is>
+          <t>Outdoor</t>
+        </is>
+      </c>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>BGM_DLC_Field_S16</t>
+        </is>
+      </c>
+      <c r="Y85" t="inlineStr">
+        <is>
+          <t>BGM_Field_S_E01</t>
+        </is>
+      </c>
+      <c r="Z85" t="inlineStr">
+        <is>
+          <t>BGM_DLC_Field_S16</t>
+        </is>
+      </c>
+      <c r="AA85" t="inlineStr">
+        <is>
+          <t>BGM_DLC_Field_S16</t>
+        </is>
+      </c>
+      <c r="AB85" t="inlineStr">
+        <is>
+          <t>BGM_Field_S_E01</t>
+        </is>
+      </c>
+      <c r="AC85" t="inlineStr">
+        <is>
+          <t>BGM_Sys_Prepare1</t>
+        </is>
+      </c>
+      <c r="AD85" t="inlineStr">
+        <is>
+          <t>BGM_Evt_Ring</t>
+        </is>
+      </c>
+      <c r="AE85" t="inlineStr"/>
+      <c r="AF85" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG85" t="inlineStr">
+        <is>
+          <t>NID_神竜の章</t>
+        </is>
+      </c>
+      <c r="AH85" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI85" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>CID_G004</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>MCID_*</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Fld_*</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>*_Encount</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>ChapterTitleLithos</t>
+        </is>
+      </c>
+      <c r="J86" t="n">
+        <v>1</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>MapTerrain_*</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>G004</t>
+        </is>
+      </c>
+      <c r="O86" t="n">
+        <v>1</v>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>G001</t>
+        </is>
+      </c>
+      <c r="Q86" t="n">
+        <v>1</v>
+      </c>
+      <c r="R86" t="inlineStr">
+        <is>
+          <t>EJID_G_ランダム_DLC;</t>
+        </is>
+      </c>
+      <c r="S86" t="inlineStr"/>
+      <c r="T86" t="n">
+        <v>1</v>
+      </c>
+      <c r="U86" t="n">
+        <v>0</v>
+      </c>
+      <c r="V86" t="n">
+        <v>59</v>
+      </c>
+      <c r="W86" t="inlineStr">
+        <is>
+          <t>Outdoor</t>
+        </is>
+      </c>
+      <c r="X86" t="inlineStr">
+        <is>
+          <t>BGM_Field_S05</t>
+        </is>
+      </c>
+      <c r="Y86" t="inlineStr">
+        <is>
+          <t>BGM_Field_S_E01</t>
+        </is>
+      </c>
+      <c r="Z86" t="inlineStr">
+        <is>
+          <t>BGM_Field_S05</t>
+        </is>
+      </c>
+      <c r="AA86" t="inlineStr">
+        <is>
+          <t>BGM_Field_S05</t>
+        </is>
+      </c>
+      <c r="AB86" t="inlineStr">
+        <is>
+          <t>BGM_Field_S_E01</t>
+        </is>
+      </c>
+      <c r="AC86" t="inlineStr">
+        <is>
+          <t>BGM_Sys_Prepare1</t>
+        </is>
+      </c>
+      <c r="AD86" t="inlineStr">
+        <is>
+          <t>BGM_Evt_Ring</t>
+        </is>
+      </c>
+      <c r="AE86" t="inlineStr"/>
+      <c r="AF86" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG86" t="inlineStr">
+        <is>
+          <t>NID_神竜の章</t>
+        </is>
+      </c>
+      <c r="AH86" t="n">
+        <v>42</v>
+      </c>
+      <c r="AI86" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>CID_G005</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>MCID_*</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Fld_*</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>*_Encount</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>ChapterTitleLithos</t>
+        </is>
+      </c>
+      <c r="J87" t="n">
+        <v>1</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>MapTerrain_*</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>G005</t>
+        </is>
+      </c>
+      <c r="O87" t="n">
+        <v>1</v>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>G001</t>
+        </is>
+      </c>
+      <c r="Q87" t="n">
+        <v>1</v>
+      </c>
+      <c r="R87" t="inlineStr">
+        <is>
+          <t>EJID_G_ランダム_DLC;</t>
+        </is>
+      </c>
+      <c r="S87" t="inlineStr"/>
+      <c r="T87" t="n">
+        <v>1</v>
+      </c>
+      <c r="U87" t="n">
+        <v>0</v>
+      </c>
+      <c r="V87" t="n">
+        <v>59</v>
+      </c>
+      <c r="W87" t="inlineStr">
+        <is>
+          <t>Cave</t>
+        </is>
+      </c>
+      <c r="X87" t="inlineStr">
+        <is>
+          <t>BGM_Field_S07</t>
+        </is>
+      </c>
+      <c r="Y87" t="inlineStr">
+        <is>
+          <t>BGM_Field_S_E01</t>
+        </is>
+      </c>
+      <c r="Z87" t="inlineStr">
+        <is>
+          <t>BGM_Field_S07</t>
+        </is>
+      </c>
+      <c r="AA87" t="inlineStr">
+        <is>
+          <t>BGM_Field_S07</t>
+        </is>
+      </c>
+      <c r="AB87" t="inlineStr">
+        <is>
+          <t>BGM_Field_S_E01</t>
+        </is>
+      </c>
+      <c r="AC87" t="inlineStr">
+        <is>
+          <t>BGM_Sys_Prepare1</t>
+        </is>
+      </c>
+      <c r="AD87" t="inlineStr">
+        <is>
+          <t>BGM_Evt_Ring</t>
+        </is>
+      </c>
+      <c r="AE87" t="inlineStr"/>
+      <c r="AF87" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG87" t="inlineStr">
+        <is>
+          <t>NID_神竜の章</t>
+        </is>
+      </c>
+      <c r="AH87" t="n">
+        <v>43</v>
+      </c>
+      <c r="AI87" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>CID_G006</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>MCID_*</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Fld_*</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>*_Encount</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>ChapterTitleLithos</t>
+        </is>
+      </c>
+      <c r="J88" t="n">
+        <v>1</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>MapTerrain_*</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>G006</t>
+        </is>
+      </c>
+      <c r="O88" t="n">
+        <v>1</v>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>G001</t>
+        </is>
+      </c>
+      <c r="Q88" t="n">
+        <v>1</v>
+      </c>
+      <c r="R88" t="inlineStr">
+        <is>
+          <t>EJID_G_ランダム_DLC;</t>
+        </is>
+      </c>
+      <c r="S88" t="inlineStr"/>
+      <c r="T88" t="n">
+        <v>1</v>
+      </c>
+      <c r="U88" t="n">
+        <v>0</v>
+      </c>
+      <c r="V88" t="n">
+        <v>59</v>
+      </c>
+      <c r="W88" t="inlineStr">
+        <is>
+          <t>Cave</t>
+        </is>
+      </c>
+      <c r="X88" t="inlineStr">
+        <is>
+          <t>BGM_Field_S03</t>
+        </is>
+      </c>
+      <c r="Y88" t="inlineStr">
+        <is>
+          <t>BGM_Field_S_E01</t>
+        </is>
+      </c>
+      <c r="Z88" t="inlineStr">
+        <is>
+          <t>BGM_Field_S03</t>
+        </is>
+      </c>
+      <c r="AA88" t="inlineStr">
+        <is>
+          <t>BGM_Field_S03</t>
+        </is>
+      </c>
+      <c r="AB88" t="inlineStr">
+        <is>
+          <t>BGM_Field_S_E01</t>
+        </is>
+      </c>
+      <c r="AC88" t="inlineStr">
+        <is>
+          <t>BGM_Sys_Prepare1</t>
+        </is>
+      </c>
+      <c r="AD88" t="inlineStr">
+        <is>
+          <t>BGM_Evt_Ring</t>
+        </is>
+      </c>
+      <c r="AE88" t="inlineStr"/>
+      <c r="AF88" t="n">
+        <v>30</v>
+      </c>
+      <c r="AG88" t="inlineStr">
+        <is>
+          <t>NID_神竜の章</t>
+        </is>
+      </c>
+      <c r="AH88" t="n">
+        <v>44</v>
+      </c>
+      <c r="AI88" t="n">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/data/xlsx/Chapter.xlsx
+++ b/data/xlsx/Chapter.xlsx
@@ -11723,7 +11723,7 @@
       </c>
       <c r="AG83" t="inlineStr">
         <is>
-          <t>NID_神竜の章</t>
+          <t>隶属国家不详</t>
         </is>
       </c>
       <c r="AH83" t="n">
@@ -11866,7 +11866,7 @@
       </c>
       <c r="AG84" t="inlineStr">
         <is>
-          <t>NID_神竜の章</t>
+          <t>隶属国家不详</t>
         </is>
       </c>
       <c r="AH84" t="n">
@@ -12009,7 +12009,7 @@
       </c>
       <c r="AG85" t="inlineStr">
         <is>
-          <t>NID_神竜の章</t>
+          <t>隶属国家不详</t>
         </is>
       </c>
       <c r="AH85" t="n">
@@ -12152,7 +12152,7 @@
       </c>
       <c r="AG86" t="inlineStr">
         <is>
-          <t>NID_神竜の章</t>
+          <t>隶属国家不详</t>
         </is>
       </c>
       <c r="AH86" t="n">
@@ -12295,7 +12295,7 @@
       </c>
       <c r="AG87" t="inlineStr">
         <is>
-          <t>NID_神竜の章</t>
+          <t>隶属国家不详</t>
         </is>
       </c>
       <c r="AH87" t="n">
@@ -12438,7 +12438,7 @@
       </c>
       <c r="AG88" t="inlineStr">
         <is>
-          <t>NID_神竜の章</t>
+          <t>隶属国家不详</t>
         </is>
       </c>
       <c r="AH88" t="n">
